--- a/List_of_cites/temp.xlsx
+++ b/List_of_cites/temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aujla\Downloads\Job_Search_Automation\List_of_cites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33744DC6-E3BA-48FE-A290-A0D38625ECE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264F82F9-8972-40B0-A821-40D500DB89A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A94EBC4-9AD4-4FF1-B374-D76BBAE56C4E}"/>
+    <workbookView xWindow="4020" yWindow="3480" windowWidth="14415" windowHeight="10920" xr2:uid="{5A94EBC4-9AD4-4FF1-B374-D76BBAE56C4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,18 +33,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Quebec</t>
-  </si>
-  <si>
-    <t>Saint-Georges</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>City</t>
   </si>
   <si>
     <t>State</t>
+  </si>
+  <si>
+    <t>Kansas City</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Hampton</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Ventura</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Anaheim</t>
   </si>
 </sst>
 </file>
@@ -407,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9873BFED-42A1-4667-9538-6FC9019CF6E6}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,22 +436,45 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>3</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/List_of_cites/temp.xlsx
+++ b/List_of_cites/temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aujla\Downloads\Job_Search_Automation\List_of_cites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264F82F9-8972-40B0-A821-40D500DB89A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9806EFE8-D6DB-4CFC-A12E-F3C8B705D8CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="3480" windowWidth="14415" windowHeight="10920" xr2:uid="{5A94EBC4-9AD4-4FF1-B374-D76BBAE56C4E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A94EBC4-9AD4-4FF1-B374-D76BBAE56C4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>City</t>
   </si>
@@ -41,25 +41,10 @@
     <t>State</t>
   </si>
   <si>
-    <t>Kansas City</t>
+    <t>Fernie</t>
   </si>
   <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Hampton</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Ventura</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Anaheim</t>
+    <t>BC</t>
   </si>
 </sst>
 </file>
@@ -422,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9873BFED-42A1-4667-9538-6FC9019CF6E6}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,30 +437,6 @@
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
